--- a/NUnit Tests/SB.Report.Test/Logics/ExcelTemplate/Reports/CustomExcelTemplateReport.xlsx
+++ b/NUnit Tests/SB.Report.Test/Logics/ExcelTemplate/Reports/CustomExcelTemplateReport.xlsx
@@ -1,51 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansur\source\repos\SBFramework\NUnit Tests\SB.Report.Test\Logics\ExcelTemplate\Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1CAE7-CA17-4E9F-A772-7601D51756B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Test">Лист1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$K$3</definedName>
+    <definedName name="header">Лист1!$A$1:$K$3</definedName>
+    <definedName name="row">Лист1!$A$4:$K$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+  <si>
+    <t>Период:</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Терминал</t>
+  </si>
+  <si>
+    <t>Сумма по платежам</t>
+  </si>
+  <si>
+    <t>Отчет по инкассации терминалов</t>
+  </si>
+  <si>
+    <t>Данные по чеку</t>
+  </si>
+  <si>
+    <t>Данные по мониторингу</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Инкассаций</t>
+  </si>
+  <si>
+    <t>Касса н/п</t>
+  </si>
+  <si>
+    <t>Касса к/п</t>
+  </si>
+  <si>
+    <t>Купюр</t>
+  </si>
+  <si>
+    <t>Номер терминала</t>
+  </si>
+  <si>
+    <t>{GroupName}</t>
+  </si>
+  <si>
+    <t>{TerminalNumber}</t>
+  </si>
+  <si>
+    <t>{TerminalName}</t>
+  </si>
+  <si>
+    <t>{EncashmentCount}</t>
+  </si>
+  <si>
+    <t>{EncashmentSum}</t>
+  </si>
+  <si>
+    <t>{EncashmentBanknotesCount}</t>
+  </si>
+  <si>
+    <t>{EncashmentMonitoringSum}</t>
+  </si>
+  <si>
+    <t>{EncashmentMonitoringBanknotesCount}</t>
+  </si>
+  <si>
+    <t>{CashboxEndPeriod}</t>
+  </si>
+  <si>
+    <t>{CashboxStartPeriod}</t>
+  </si>
+  <si>
+    <t>{EncashmentPaymentSum}</t>
+  </si>
+  <si>
+    <t>{BeginDate} - {EndDate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,17 +163,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -99,44 +232,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -164,14 +297,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -199,6 +349,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -210,170 +377,302 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="13" customWidth="1"/>
+    <col min="5" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="9" width="22.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="204" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NUnit Tests/SB.Report.Test/Logics/ExcelTemplate/Reports/CustomExcelTemplateReport.xlsx
+++ b/NUnit Tests/SB.Report.Test/Logics/ExcelTemplate/Reports/CustomExcelTemplateReport.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mansur\source\repos\SBFramework\NUnit Tests\SB.Report.Test\Logics\ExcelTemplate\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bunyod\Desktop\Projects\SBFramework\NUnit Tests\SB.Report.Test\Logics\ExcelTemplate\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1CAE7-CA17-4E9F-A772-7601D51756B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$K$3</definedName>
-    <definedName name="header">Лист1!$A$1:$K$3</definedName>
-    <definedName name="row">Лист1!$A$4:$K$4</definedName>
+    <definedName name="Header">Лист1!$A$1:$K$3</definedName>
+    <definedName name="Rows">Лист1!$A$4:$K$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -297,23 +296,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,23 +331,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -541,11 +506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +560,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>

--- a/NUnit Tests/SB.Report.Test/Logics/ExcelTemplate/Reports/CustomExcelTemplateReport.xlsx
+++ b/NUnit Tests/SB.Report.Test/Logics/ExcelTemplate/Reports/CustomExcelTemplateReport.xlsx
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>

--- a/NUnit Tests/SB.Report.Test/Logics/ExcelTemplate/Reports/CustomExcelTemplateReport.xlsx
+++ b/NUnit Tests/SB.Report.Test/Logics/ExcelTemplate/Reports/CustomExcelTemplateReport.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bunyod\Desktop\Projects\SBFramework\NUnit Tests\SB.Report.Test\Logics\ExcelTemplate\Reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView windowWidth="18468" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,50 +14,53 @@
     <definedName name="Header">Лист1!$A$1:$K$3</definedName>
     <definedName name="Rows">Лист1!$A$4:$K$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
+    <t>Отчет по инкассации терминалов</t>
+  </si>
+  <si>
     <t>Период:</t>
   </si>
   <si>
+    <t>{BeginDate} - {EndDate}</t>
+  </si>
+  <si>
+    <t>Данные по чеку</t>
+  </si>
+  <si>
+    <t>Данные по мониторингу</t>
+  </si>
+  <si>
     <t>Группа</t>
   </si>
   <si>
+    <t>Номер терминала</t>
+  </si>
+  <si>
     <t>Терминал</t>
   </si>
   <si>
-    <t>Сумма по платежам</t>
-  </si>
-  <si>
-    <t>Отчет по инкассации терминалов</t>
-  </si>
-  <si>
-    <t>Данные по чеку</t>
-  </si>
-  <si>
-    <t>Данные по мониторингу</t>
+    <t>Инкассаций</t>
+  </si>
+  <si>
+    <t>Касса н/п</t>
   </si>
   <si>
     <t>Сумма</t>
   </si>
   <si>
-    <t>Инкассаций</t>
-  </si>
-  <si>
-    <t>Касса н/п</t>
+    <t>Купюр</t>
   </si>
   <si>
     <t>Касса к/п</t>
   </si>
   <si>
-    <t>Купюр</t>
-  </si>
-  <si>
-    <t>Номер терминала</t>
+    <t>Изоброжение</t>
   </si>
   <si>
     <t>{GroupName}</t>
@@ -77,6 +75,9 @@
     <t>{EncashmentCount}</t>
   </si>
   <si>
+    <t>{CashboxStartPeriod}</t>
+  </si>
+  <si>
     <t>{EncashmentSum}</t>
   </si>
   <si>
@@ -92,37 +93,25 @@
     <t>{CashboxEndPeriod}</t>
   </si>
   <si>
-    <t>{CashboxStartPeriod}</t>
-  </si>
-  <si>
-    <t>{EncashmentPaymentSum}</t>
-  </si>
-  <si>
-    <t>{BeginDate} - {EndDate}</t>
+    <t>{Image}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +120,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -140,20 +128,364 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,60 +493,343 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -263,7 +878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +913,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,143 +1116,146 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="36" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="13" customWidth="1"/>
-    <col min="5" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="9" width="22.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.4259259259259" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.4259259259259" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="6" width="20" style="5" customWidth="1"/>
+    <col min="7" max="9" width="22.1388888888889" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.88888888888889" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" ht="15.6" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="2"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="16"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="3" ht="30" customHeight="1" spans="1:12">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="204" r:id="rId1"/>
+  <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="204"/>
+  <headerFooter/>
 </worksheet>
 </file>